--- a/Ofertas.xlsx
+++ b/Ofertas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iphone 11, preto, 64gb, tela hd 6,1, câm. 12mp no plano vivo pós família 63gb</t>
+          <t>iphone 11 apple 64gb amarelo 6,1 12mp - ios</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3099</v>
+        <v>3414.86</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://lojaonline.vivo.com.br/vivostorefront/Vivo/Aparelhos/Smartphone/iPhone-11-Apple-Preto,-64GB,-Tela-6-1,-C%25C3%25A2m-12MP/p/DGAP13662000%3FbestPlanCode%3DPLFAM30GB2019FCB%26origem%3Dfeed-google-shopping%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26utm_campaign%3Dfree_shopping_list&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwj4kojWrPz4AhWiGLkGHf1ZBW0QgOUECL8R&amp;usg=AOvVaw2NBeA87mqbGyT4sDg_jp4l</t>
+          <t>https://www.google.com/url?url=https://www.submarino.com.br/produto/1593243162%3Fopn%3DXMLGOOGLE%26offerId%3D5e8b8302657407f87178a1a0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwikypWcmP74AhVkK7kGHWAaDOQQguUECKgP&amp;usg=AOvVaw1lq9v_V2HVviCnqwt6B2t8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>iphone 11 apple (64gb) branco, tela de 6,1, 4g e câmera de 12 mp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3449</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.shopfacil.com.br/iphone-11-branco-com-tela-de-61-4g-64-gb-e-camera-de-12-mp---mhdc3br-a-1171784489/p%3Fseller%3D004486803%26sellerId%3D004486803%26idsku%3D7458169%26lu%3D20220716182834&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwikypWcmP74AhVkK7kGHWAaDOQQguUECMYQ&amp;usg=AOvVaw38twOTfa64gtjwBpiCRLVH</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iphone 11, preto, 64gb, tela hd 6,1, câm. 12mp no plano vivo pós família 63gb</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3099</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://lojaonline.vivo.com.br/vivostorefront/Vivo/Aparelhos/Smartphone/iPhone-11-Apple-Preto,-64GB,-Tela-6-1,-C%25C3%25A2m-12MP/p/DGAP13662000%3FbestPlanCode%3DPLFAM30GB2019FCB%26origem%3Dfeed-google-shopping%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26utm_campaign%3Dfree_shopping_list&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwikypWcmP74AhVkK7kGHWAaDOQQgOUECOQQ&amp;usg=AOvVaw2rVeO2WSQQOyoBTSqsOssb</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>placa de video colorful igame geforce rtx 3060 ti ultra w oc lhr-v 8gb gddr6 256bit</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>4249.15</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/358373/placa-de-video-colorful-igame-geforce-rtx-3060-ti-ultra-w-oc-lhr-v-8gb-gddr6-256bit%3Fsrsltid%3DAdGWZVRJmExYYSXWFZSDfHqUm14FbcNfCF6FJnL_L0-IWboF-zhGpX6sRQ0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieycHfrPz4AhXHK7kGHadIBiAQguUECLcU&amp;usg=AOvVaw0l5JMgFP5cq4OBCQsuRuth</t>
+      <c r="B5" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/url?url=https://www.cntinfostore.com.br/MLB-2172087260-colorful-igame-rtx-3060-ti-ultra-w-oc-lhr-v-8gb-_JM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF64aqmP74AhVkFbkGHXpMDDAQguUECIMU&amp;usg=AOvVaw3bttL4l8RKYlrld0tS_7wO</t>
         </is>
       </c>
     </row>
